--- a/planilha_atualizada.xlsx
+++ b/planilha_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>301386762</v>
+        <v>301916672</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,27 +486,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>MARAGOGIPE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>MGP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11/05/2023 21:51:48</t>
+          <t>19/05/2023 22:07:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -517,7 +517,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>301916672</v>
+        <v>307385090</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MARAGOGIPE</t>
+          <t>JOÃO DOURADO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MGP</t>
+          <t>DRD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19/05/2023 22:07:00</t>
+          <t>17/10/2023 21:29:38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -557,7 +557,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>307385090</v>
+        <v>312489793</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -566,27 +566,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JOÃO DOURADO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DRD</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17/10/2023 21:29:38</t>
+          <t>29/02/2024 03:02:12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -597,7 +597,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>312489793</v>
+        <v>314933901</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -606,27 +606,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SÍTIO DO MATO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>FBJ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>29/02/2024 03:02:12</t>
+          <t>02/05/2024 09:58:47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -637,7 +637,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>314933901</v>
+        <v>314934677</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SÍTIO DO MATO</t>
+          <t>BREJOLÂNDIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FBJ</t>
+          <t>BJA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02/05/2024 09:58:47</t>
+          <t>02/05/2024 10:04:44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -677,7 +677,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>314934677</v>
+        <v>315149094</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -686,27 +686,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BREJOLÂNDIA</t>
+          <t>PILÃO ARCADO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BJA</t>
+          <t>XPO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02/05/2024 10:04:44</t>
+          <t>07/05/2024 08:51:28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -717,7 +717,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>315149094</v>
+        <v>315520684</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -726,22 +726,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PILÃO ARCADO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>XPO</t>
+          <t>CRZ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>07/05/2024 08:51:28</t>
+          <t>15/05/2024 21:19:47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -757,7 +757,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>315520684</v>
+        <v>316646294</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -766,12 +766,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SÃO SEBASTIÃO DO PASSÉ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CRZ</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15/05/2024 21:19:47</t>
+          <t>12/06/2024 09:32:16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -797,7 +797,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>316646294</v>
+        <v>317058724</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -806,27 +806,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SÃO SEBASTIÃO DO PASSÉ</t>
+          <t>CAETITÉ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>FZS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12/06/2024 09:32:16</t>
+          <t>22/06/2024 00:34:18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -837,7 +837,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>317058724</v>
+        <v>317082675</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -846,12 +846,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CAETITÉ</t>
+          <t>LUÍS EDUARDO MAGALHÃES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FZS</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22/06/2024 00:34:18</t>
+          <t>22/06/2024 16:53:38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -877,7 +877,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>317082675</v>
+        <v>318267122</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -886,22 +886,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LUÍS EDUARDO MAGALHÃES</t>
+          <t>VÁRZEA DA ROÇA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>VDR</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>22/06/2024 16:53:38</t>
+          <t>19/07/2024 17:36:29</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -917,7 +917,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>318267122</v>
+        <v>318376937</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -926,22 +926,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VÁRZEA DA ROÇA</t>
+          <t>SÃO SEBASTIÃO DO PASSÉ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VDR</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19/07/2024 17:36:29</t>
+          <t>22/07/2024 16:12:41</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -957,7 +957,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>318376937</v>
+        <v>318609658</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -966,12 +966,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SÃO SEBASTIÃO DO PASSÉ</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>22/07/2024 16:12:41</t>
+          <t>26/07/2024 15:41:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -997,7 +997,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>318609658</v>
+        <v>319985507</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1006,22 +1006,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>JUSSARA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PPT</t>
+          <t>QNA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>26/07/2024 15:41:10</t>
+          <t>21/08/2024 01:45:22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>319985507</v>
+        <v>320191389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JUSSARA</t>
+          <t>OLINDINA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>QNA</t>
+          <t>OLC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>21/08/2024 01:45:22</t>
+          <t>23/08/2024 18:31:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1077,7 +1077,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>320191389</v>
+        <v>320565437</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OLINDINA</t>
+          <t>BARRO ALTO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OLC</t>
+          <t>LDB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>23/08/2024 18:31:45</t>
+          <t>31/08/2024 03:54:02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1117,7 +1117,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>320565437</v>
+        <v>320917787</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BARRO ALTO</t>
+          <t>CARAÍBAS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LDB</t>
+          <t>AGL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>31/08/2024 03:54:02</t>
+          <t>06/09/2024 08:39:27</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1157,7 +1157,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>320917787</v>
+        <v>321517027</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1166,27 +1166,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CARAÍBAS</t>
+          <t>PILÃO ARCADO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AGL</t>
+          <t>PAO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>06/09/2024 08:39:27</t>
+          <t>17/09/2024 02:52:32</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>321517027</v>
+        <v>322775802</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1206,27 +1206,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PILÃO ARCADO</t>
+          <t>ITAPETINGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PAO</t>
+          <t>FZO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17/09/2024 02:52:32</t>
+          <t>07/10/2024 08:59:42</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1237,7 +1237,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>322775802</v>
+        <v>323019019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ITAPETINGA</t>
+          <t>PALMAS DE MONTE ALTO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FZO</t>
+          <t>PMA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>07/10/2024 08:59:42</t>
+          <t>11/10/2024 09:58:47</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1277,7 +1277,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>323019019</v>
+        <v>323987906</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1286,27 +1286,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PALMAS DE MONTE ALTO</t>
+          <t>MATA DE SÃO JOÃO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PMA</t>
+          <t>CSU</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11/10/2024 09:58:47</t>
+          <t>29/10/2024 14:55:34</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1317,7 +1317,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>323987906</v>
+        <v>324103986</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1326,27 +1326,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MATA DE SÃO JOÃO</t>
+          <t>MILAGRES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CSU</t>
+          <t>EML</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>29/10/2024 14:55:34</t>
+          <t>31/10/2024 14:33:36</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1357,7 +1357,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>324103986</v>
+        <v>324417355</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MILAGRES</t>
+          <t>ESPLANADA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EML</t>
+          <t>PLM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>31/10/2024 14:33:36</t>
+          <t>06/11/2024 22:56:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1397,7 +1397,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>324417355</v>
+        <v>324437383</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1406,27 +1406,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ESPLANADA</t>
+          <t>ITABUNA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PLM</t>
+          <t>ITT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>06/11/2024 22:56:41</t>
+          <t>07/11/2024 08:11:29</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1437,7 +1437,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>324437383</v>
+        <v>324834751</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1446,27 +1446,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ITABUNA</t>
+          <t>BARREIRAS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>07/11/2024 08:11:29</t>
+          <t>14/11/2024 06:24:44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>324834751</v>
+        <v>324903634</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BARREIRAS</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>BQH</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>14/11/2024 06:24:44</t>
+          <t>15/11/2024 14:50:05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>324903634</v>
+        <v>325118743</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>SÃO FRANCISCO DO CONDE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>BQH</t>
+          <t>NRL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15/11/2024 14:50:05</t>
+          <t>19/11/2024 21:38:14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1557,7 +1557,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>325118743</v>
+        <v>325497204</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1566,27 +1566,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SÃO FRANCISCO DO CONDE</t>
+          <t>PORTO SEGURO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NRL</t>
+          <t>TNO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19/11/2024 21:38:14</t>
+          <t>27/11/2024 03:56:06</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>325497204</v>
+        <v>325652601</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PORTO SEGURO</t>
+          <t>MEDEIROS NETO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TNO</t>
+          <t>USM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1621,12 +1621,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>27/11/2024 03:56:06</t>
+          <t>29/11/2024 13:42:53</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1637,7 +1637,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>325652601</v>
+        <v>326380671</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1646,22 +1646,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MEDEIROS NETO</t>
+          <t>PINDOBAÇU</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>USM</t>
+          <t>CBX</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>29/11/2024 13:42:53</t>
+          <t>11/12/2024 14:56:41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1677,7 +1677,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>326380671</v>
+        <v>326410352</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1686,22 +1686,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PINDOBAÇU</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CBX</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>11/12/2024 14:56:41</t>
+          <t>12/12/2024 03:37:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>326410352</v>
+        <v>326478065</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>JUAZEIRO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>JCC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12/12/2024 03:37:45</t>
+          <t>13/12/2024 02:05:23</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1757,7 +1757,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>326478065</v>
+        <v>327072139</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1766,27 +1766,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JUAZEIRO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JCC</t>
+          <t>VLA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>13/12/2024 02:05:23</t>
+          <t>23/12/2024 18:08:37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1797,7 +1797,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>327072139</v>
+        <v>327333666</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VLA</t>
+          <t>OPH</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>23/12/2024 18:08:37</t>
+          <t>28/12/2024 19:21:52</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1837,7 +1837,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>327333666</v>
+        <v>327866446</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CANSANÇÃO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OPH</t>
+          <t>CSC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>28/12/2024 19:21:52</t>
+          <t>07/01/2025 19:29:51</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>327866446</v>
+        <v>328310619</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1886,27 +1886,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CANSANÇÃO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>07/01/2025 19:29:51</t>
+          <t>15/01/2025 13:48:07</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1917,7 +1917,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>328310619</v>
+        <v>328680571</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CÂNDIDO SALES</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>15/01/2025 13:48:07</t>
+          <t>21/01/2025 10:32:11</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>328680571</v>
+        <v>328689364</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CÂNDIDO SALES</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>MND</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>21/01/2025 10:32:11</t>
+          <t>21/01/2025 13:00:31</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1997,7 +1997,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>328689364</v>
+        <v>328914009</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MND</t>
+          <t>BCL</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>21/01/2025 13:00:31</t>
+          <t>24/01/2025 19:05:55</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>328914009</v>
+        <v>329637495</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>BCL</t>
+          <t>ACA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>24/01/2025 19:05:55</t>
+          <t>06/02/2025 11:46:16</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2077,7 +2077,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>329637495</v>
+        <v>329863985</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ACA</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>06/02/2025 11:46:16</t>
+          <t>10/02/2025 08:31:21</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2117,7 +2117,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>329863985</v>
+        <v>330107204</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ENTRE RIOS</t>
+          <t>RIO REAL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MRP</t>
+          <t>RRC</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10/02/2025 08:31:21</t>
+          <t>14/02/2025 03:07:58</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2157,7 +2157,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>330107204</v>
+        <v>330181476</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2166,12 +2166,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RIO REAL</t>
+          <t>IRECÊ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RRC</t>
+          <t>IAL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>14/02/2025 03:07:58</t>
+          <t>14/02/2025 22:59:27</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2197,7 +2197,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>330181476</v>
+        <v>330446598</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2206,22 +2206,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IRECÊ</t>
+          <t>UBATÃ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IAL</t>
+          <t>UBT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>14/02/2025 22:59:27</t>
+          <t>18/02/2025 05:26:04</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2237,7 +2237,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>330446598</v>
+        <v>330464831</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2246,27 +2246,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UBATÃ</t>
+          <t>FEIRA DE SANTANA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>UBT</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>18/02/2025 05:26:04</t>
+          <t>18/02/2025 11:15:57</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2277,7 +2277,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>330464831</v>
+        <v>330586864</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2286,27 +2286,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>18/02/2025 11:15:57</t>
+          <t>19/02/2025 22:10:15</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2317,7 +2317,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>330586864</v>
+        <v>332995114</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ITABUNA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>1CM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>19/02/2025 22:10:15</t>
+          <t>05/03/2025 15:13:06</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2957,7 +2957,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>340100821</v>
+        <v>340609325</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2966,27 +2966,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CARINHANHA</t>
+          <t>ALAGOINHAS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>02/04/2025 01:40:20</t>
+          <t>04/04/2025 04:23:33</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2997,7 +2997,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>340609325</v>
+        <v>341466799</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ALAGOINHAS</t>
+          <t>VÁRZEA DA ROÇA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>VDR</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>04/04/2025 04:23:33</t>
+          <t>08/04/2025 19:01:37</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3037,7 +3037,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>341466799</v>
+        <v>341518777</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3046,27 +3046,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VÁRZEA DA ROÇA</t>
+          <t>AMARGOSA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VDR</t>
+          <t>AMG</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08/04/2025 19:01:37</t>
+          <t>09/04/2025 04:52:09</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3077,7 +3077,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>341518777</v>
+        <v>341518882</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3086,27 +3086,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AMARGOSA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>EBN</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09/04/2025 04:52:09</t>
+          <t>09/04/2025 04:52:25</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3117,7 +3117,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>341518882</v>
+        <v>341559217</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3126,27 +3126,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>TEIXEIRA DE FREITAS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>EBN</t>
+          <t>TAF</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>09/04/2025 04:52:25</t>
+          <t>09/04/2025 21:42:54</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3157,7 +3157,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>341559217</v>
+        <v>341590047</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TEIXEIRA DE FREITAS</t>
+          <t>PARIPIRANGA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TAF</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>09/04/2025 21:42:54</t>
+          <t>10/04/2025 11:12:21</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3197,7 +3197,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>341590047</v>
+        <v>341627880</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PARIPIRANGA</t>
+          <t>UMBURANAS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10/04/2025 11:12:21</t>
+          <t>11/04/2025 03:16:35</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>341627880</v>
+        <v>341648235</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3246,22 +3246,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>UMBURANAS</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>11/04/2025 03:16:35</t>
+          <t>11/04/2025 12:29:28</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3277,7 +3277,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>341648235</v>
+        <v>341655139</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3286,27 +3286,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>IRECÊ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>ICC</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11/04/2025 12:29:28</t>
+          <t>11/04/2025 14:54:16</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3317,7 +3317,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>341655139</v>
+        <v>341659585</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3326,12 +3326,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>IRECÊ</t>
+          <t>IBITITÁ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ICC</t>
+          <t>IFN</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>11/04/2025 14:54:16</t>
+          <t>11/04/2025 16:25:47</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3357,7 +3357,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>341659585</v>
+        <v>341660707</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3366,22 +3366,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>IBITITÁ</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>IFN</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>11/04/2025 16:25:47</t>
+          <t>11/04/2025 16:51:59</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3397,7 +3397,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>341660707</v>
+        <v>341713195</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3406,22 +3406,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>EUCLIDES DA CUNHA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>ECC</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11/04/2025 16:51:59</t>
+          <t>12/04/2025 17:18:14</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>341713195</v>
+        <v>341742144</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3446,22 +3446,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EUCLIDES DA CUNHA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ECC</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>12/04/2025 17:18:14</t>
+          <t>13/04/2025 12:03:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3477,7 +3477,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>341742144</v>
+        <v>341773569</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>13/04/2025 12:03:16</t>
+          <t>14/04/2025 07:27:57</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3517,7 +3517,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>341773569</v>
+        <v>341797577</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>MATA DE SÃO JOÃO</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>ASA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>14/04/2025 07:27:57</t>
+          <t>14/04/2025 16:08:05</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3557,7 +3557,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>341797577</v>
+        <v>341818239</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MATA DE SÃO JOÃO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>AQN</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>14/04/2025 16:08:05</t>
+          <t>15/04/2025 04:43:05</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3597,7 +3597,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>341818239</v>
+        <v>341832136</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3606,27 +3606,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>PORTO SEGURO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>AQN</t>
+          <t>FAT</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>15/04/2025 04:43:05</t>
+          <t>15/04/2025 10:52:19</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>341832136</v>
+        <v>341835256</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3646,27 +3646,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PORTO SEGURO</t>
+          <t>FEIRA DE SANTANA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FAT</t>
+          <t>FJC</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>15/04/2025 10:52:19</t>
+          <t>15/04/2025 11:47:33</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3677,7 +3677,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>341835256</v>
+        <v>341855766</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA</t>
+          <t>OLIVEIRA DOS BREJINHOS</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FJC</t>
+          <t>OVB</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>15/04/2025 11:47:33</t>
+          <t>15/04/2025 18:40:57</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3717,7 +3717,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>341855766</v>
+        <v>341863020</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3726,22 +3726,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>OLIVEIRA DOS BREJINHOS</t>
+          <t>SANTA TEREZINHA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>OVB</t>
+          <t>STH</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>15/04/2025 18:40:57</t>
+          <t>15/04/2025 23:29:06</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>341863020</v>
+        <v>341868265</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3766,22 +3766,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SANTA TEREZINHA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>STH</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>15/04/2025 23:29:06</t>
+          <t>16/04/2025 02:10:04</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3797,7 +3797,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>341868265</v>
+        <v>341873310</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3806,27 +3806,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SERRA DO RAMALHO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>SRM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>16/04/2025 02:10:04</t>
+          <t>16/04/2025 05:32:25</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3837,7 +3837,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>341873310</v>
+        <v>341972568</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3846,27 +3846,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SERRA DO RAMALHO</t>
+          <t>JUAZEIRO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>JCC</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>16/04/2025 05:32:25</t>
+          <t>18/04/2025 06:46:24</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3877,7 +3877,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>341972568</v>
+        <v>342000613</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JUAZEIRO</t>
+          <t>MATA DE SÃO JOÃO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>JCC</t>
+          <t>PDF</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>18/04/2025 06:46:24</t>
+          <t>18/04/2025 20:16:38</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3917,7 +3917,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>342000613</v>
+        <v>342018750</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3926,22 +3926,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MATA DE SÃO JOÃO</t>
+          <t>SERRINHA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PDF</t>
+          <t>SOR</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>18/04/2025 20:16:38</t>
+          <t>19/04/2025 08:47:22</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3957,7 +3957,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>342018750</v>
+        <v>342089923</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SERRINHA</t>
+          <t>CARAVELAS</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SOR</t>
+          <t>CJT</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>19/04/2025 08:47:22</t>
+          <t>20/04/2025 22:54:36</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3997,7 +3997,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>342089923</v>
+        <v>342148498</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4006,22 +4006,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CARAVELAS</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CJT</t>
+          <t>PAQ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>20/04/2025 22:54:36</t>
+          <t>22/04/2025 08:39:24</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4037,7 +4037,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>342148498</v>
+        <v>342159243</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PAQ</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>22/04/2025 08:39:24</t>
+          <t>22/04/2025 12:18:57</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Fatura_B</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4077,7 +4077,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>342159243</v>
+        <v>342179133</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4086,27 +4086,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>REMANSO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>APM</t>
+          <t>NRE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>22/04/2025 12:18:57</t>
+          <t>22/04/2025 19:14:49</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Fatura_B</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4117,7 +4117,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>342179133</v>
+        <v>342246413</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4126,27 +4126,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>REMANSO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NRE</t>
+          <t>SPN</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>22/04/2025 19:14:49</t>
+          <t>24/04/2025 09:58:36</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>342246413</v>
+        <v>342301787</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4166,12 +4166,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SPN</t>
+          <t>CAA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>24/04/2025 09:58:36</t>
+          <t>25/04/2025 10:24:57</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4197,7 +4197,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>342301787</v>
+        <v>342320225</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4206,27 +4206,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>LUÍS EDUARDO MAGALHÃES</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CAA</t>
+          <t>BSC</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>25/04/2025 10:24:57</t>
+          <t>25/04/2025 18:17:01</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4237,7 +4237,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>342320225</v>
+        <v>342335478</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4246,22 +4246,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LUÍS EDUARDO MAGALHÃES</t>
+          <t>QUIJINGUE</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>BSC</t>
+          <t>QJG</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>25/04/2025 18:17:01</t>
+          <t>26/04/2025 04:52:14</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4277,7 +4277,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>342335478</v>
+        <v>342383284</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4286,27 +4286,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>QUIJINGUE</t>
+          <t>IRAMAIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>QJG</t>
+          <t>IRM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>26/04/2025 04:52:14</t>
+          <t>27/04/2025 11:25:08</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4317,7 +4317,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>342383284</v>
+        <v>342423919</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4326,27 +4326,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>IRAMAIA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>27/04/2025 11:25:08</t>
+          <t>28/04/2025 11:42:37</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4357,7 +4357,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>342423919</v>
+        <v>342424426</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>APM</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>28/04/2025 11:42:37</t>
+          <t>28/04/2025 11:52:29</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4397,7 +4397,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>342424426</v>
+        <v>342464151</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4406,22 +4406,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SÃO DESIDÉRIO</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>28/04/2025 11:52:29</t>
+          <t>29/04/2025 10:36:50</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4437,7 +4437,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>342464151</v>
+        <v>342484848</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4446,27 +4446,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SÃO DESIDÉRIO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>29/04/2025 10:36:50</t>
+          <t>29/04/2025 18:49:29</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4477,7 +4477,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>342484848</v>
+        <v>342492785</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ILHÉUS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>BVT</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>29/04/2025 18:49:29</t>
+          <t>29/04/2025 23:36:02</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4517,7 +4517,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>342492785</v>
+        <v>342517488</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4526,27 +4526,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ILHÉUS</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>BVT</t>
+          <t>RDV</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>29/04/2025 23:36:02</t>
+          <t>30/04/2025 12:21:33</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4557,7 +4557,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>342517488</v>
+        <v>342533124</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RDV</t>
+          <t>RCA</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4581,12 +4581,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>30/04/2025 12:21:33</t>
+          <t>30/04/2025 18:17:31</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4597,7 +4597,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>342533124</v>
+        <v>342562960</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4606,27 +4606,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CASA NOVA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RCA</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>30/04/2025 18:17:31</t>
+          <t>01/05/2025 11:55:52</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4637,7 +4637,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>342562960</v>
+        <v>342562965</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CASA NOVA</t>
+          <t>JAGUARARI</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CSN</t>
+          <t>JGI</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>01/05/2025 11:55:52</t>
+          <t>01/05/2025 11:55:56</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>342562965</v>
+        <v>342563007</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>JAGUARARI</t>
+          <t>PORTO SEGURO</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>JGI</t>
+          <t>BAI</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>01/05/2025 11:55:56</t>
+          <t>01/05/2025 11:56:48</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4717,7 +4717,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>342563007</v>
+        <v>342565940</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4726,22 +4726,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PORTO SEGURO</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>BAI</t>
+          <t>JAU</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>01/05/2025 11:56:48</t>
+          <t>01/05/2025 12:52:22</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4757,7 +4757,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>342565940</v>
+        <v>342586794</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4766,22 +4766,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>XIQUE-XIQUE</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>JAU</t>
+          <t>XQX</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>01/05/2025 12:52:22</t>
+          <t>01/05/2025 23:46:41</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>342586794</v>
+        <v>342596765</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4806,22 +4806,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>XIQUE-XIQUE</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>XQX</t>
+          <t>ATS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>01/05/2025 23:46:41</t>
+          <t>02/05/2025 05:14:44</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4837,7 +4837,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>342596765</v>
+        <v>342598535</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4846,27 +4846,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ALAGOINHAS</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ATS</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>02/05/2025 05:14:44</t>
+          <t>02/05/2025 06:04:11</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4877,7 +4877,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>342598535</v>
+        <v>342599128</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ALAGOINHAS</t>
+          <t>LAURO DE FREITAS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>02/05/2025 06:04:11</t>
+          <t>02/05/2025 06:26:01</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4917,7 +4917,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>342599128</v>
+        <v>342600637</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4926,27 +4926,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LAURO DE FREITAS</t>
+          <t>CORONEL JOÃO SÁ</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>CJS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>02/05/2025 06:26:01</t>
+          <t>02/05/2025 07:11:09</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4957,7 +4957,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>342600637</v>
+        <v>342600802</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4966,27 +4966,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CORONEL JOÃO SÁ</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CJS</t>
+          <t>EDJ</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>02/05/2025 07:11:09</t>
+          <t>02/05/2025 07:16:24</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4997,7 +4997,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>342600802</v>
+        <v>342619300</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -5006,22 +5006,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>AMÉRICA DOURADA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>EDJ</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>02/05/2025 07:16:24</t>
+          <t>02/05/2025 15:05:13</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5037,7 +5037,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>342619300</v>
+        <v>342633550</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5046,27 +5046,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>AMÉRICA DOURADA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>SPN</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>02/05/2025 15:05:13</t>
+          <t>02/05/2025 22:29:22</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5077,7 +5077,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>342633550</v>
+        <v>342633914</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5086,27 +5086,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>MURITIBA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SPN</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>02/05/2025 22:29:22</t>
+          <t>02/05/2025 22:47:24</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5117,7 +5117,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>342633914</v>
+        <v>342634221</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5126,22 +5126,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MURITIBA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>MPL</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>02/05/2025 22:47:24</t>
+          <t>02/05/2025 23:07:12</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5157,7 +5157,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>342634221</v>
+        <v>342650135</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5166,22 +5166,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ILHÉUS</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>MPL</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>02/05/2025 23:07:12</t>
+          <t>03/05/2025 09:48:02</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5197,7 +5197,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>342650135</v>
+        <v>342668739</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5206,22 +5206,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ILHÉUS</t>
+          <t>LAURO DE FREITAS</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>LFG</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>03/05/2025 09:48:02</t>
+          <t>03/05/2025 19:31:49</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>342668739</v>
+        <v>342674416</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5246,12 +5246,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>LAURO DE FREITAS</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LFG</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>03/05/2025 19:31:49</t>
+          <t>03/05/2025 23:37:03</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5277,7 +5277,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>342674416</v>
+        <v>342674875</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>RMA</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>03/05/2025 23:37:03</t>
+          <t>04/05/2025 00:00:31</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5317,7 +5317,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>342674875</v>
+        <v>342685166</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5326,27 +5326,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>VERA CRUZ</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RMA</t>
+          <t>CON</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>04/05/2025 00:00:31</t>
+          <t>04/05/2025 07:38:44</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5357,7 +5357,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>342685166</v>
+        <v>342698534</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5366,22 +5366,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>VERA CRUZ</t>
+          <t>CAMPO FORMOSO</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>04/05/2025 07:38:44</t>
+          <t>04/05/2025 15:32:38</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5397,7 +5397,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>342698534</v>
+        <v>342760841</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5406,22 +5406,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CAMPO FORMOSO</t>
+          <t>GUARATINGA</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>GTA</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>04/05/2025 15:32:38</t>
+          <t>06/05/2025 00:33:02</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5437,7 +5437,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>342733310</v>
+        <v>342782328</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5446,27 +5446,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ITABELA</t>
+          <t>FEIRA DE SANTANA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>IAC</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>05/05/2025 11:40:29</t>
+          <t>06/05/2025 11:42:07</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5477,7 +5477,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>342760841</v>
+        <v>342809215</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5486,27 +5486,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>GUARATINGA</t>
+          <t>BARREIRAS</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>GTA</t>
+          <t>BBS</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>06/05/2025 00:33:02</t>
+          <t>06/05/2025 22:14:41</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5517,7 +5517,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>342782328</v>
+        <v>342809218</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5526,27 +5526,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA</t>
+          <t>SÃO DESIDÉRIO</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>06/05/2025 11:42:07</t>
+          <t>06/05/2025 22:14:43</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5557,7 +5557,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>342809215</v>
+        <v>342821700</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5566,27 +5566,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>BARREIRAS</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>BBS</t>
+          <t>ROM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>06/05/2025 22:14:41</t>
+          <t>07/05/2025 07:15:57</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5597,7 +5597,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>342809218</v>
+        <v>342829093</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5606,27 +5606,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SÃO DESIDÉRIO</t>
+          <t>FEIRA DE SANTANA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>06/05/2025 22:14:43</t>
+          <t>07/05/2025 10:33:44</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5637,7 +5637,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>342810629</v>
+        <v>342835370</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>MATA DE SÃO JOÃO</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>BDA</t>
+          <t>CSU</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>06/05/2025 23:12:18</t>
+          <t>07/05/2025 13:05:07</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5677,7 +5677,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>342811011</v>
+        <v>342840418</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5686,27 +5686,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SÃO SEBASTIÃO DO PASSÉ</t>
+          <t>BAIANÓPOLIS</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PFX</t>
+          <t>BPS</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>06/05/2025 23:32:57</t>
+          <t>07/05/2025 14:52:14</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5717,7 +5717,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>342821700</v>
+        <v>342854155</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5726,22 +5726,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CAIRU</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ROM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>07/05/2025 07:15:57</t>
+          <t>07/05/2025 20:15:28</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5757,7 +5757,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>342829093</v>
+        <v>342861687</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5766,22 +5766,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA</t>
+          <t>SANTA CRUZ CABRÁLIA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>SCC</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>07/05/2025 10:33:44</t>
+          <t>08/05/2025 01:08:52</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5797,7 +5797,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>342835370</v>
+        <v>342871212</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MATA DE SÃO JOÃO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CSU</t>
+          <t>EPJ</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>07/05/2025 13:05:07</t>
+          <t>08/05/2025 07:29:22</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5837,7 +5837,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>342840418</v>
+        <v>342885106</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5846,27 +5846,27 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BAIANÓPOLIS</t>
+          <t>ALAGOINHAS</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>ACM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>07/05/2025 14:52:14</t>
+          <t>08/05/2025 12:12:05</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5877,7 +5877,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>342854155</v>
+        <v>342897511</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CAIRU</t>
+          <t>SANTA RITA DE CÁSSIA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>07/05/2025 20:15:28</t>
+          <t>08/05/2025 16:04:11</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5917,7 +5917,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>342861687</v>
+        <v>342902970</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5926,27 +5926,27 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SANTA CRUZ CABRÁLIA</t>
+          <t>JANDAÍRA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SCC</t>
+          <t>JAN</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>08/05/2025 01:08:52</t>
+          <t>08/05/2025 17:56:02</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5957,7 +5957,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>342871212</v>
+        <v>342909009</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5966,27 +5966,27 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>NOVA IBIÁ</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>EPJ</t>
+          <t>NIB</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>08/05/2025 07:29:22</t>
+          <t>08/05/2025 21:39:36</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5997,7 +5997,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>342873539</v>
+        <v>342919610</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -6006,27 +6006,27 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DIAS D'ÁVILA</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>DDC</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>08/05/2025 08:49:42</t>
+          <t>09/05/2025 06:34:20</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6037,7 +6037,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>342885106</v>
+        <v>342922052</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -6046,27 +6046,27 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ALAGOINHAS</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>PAQ</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>08/05/2025 12:12:05</t>
+          <t>09/05/2025 07:49:30</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6077,7 +6077,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>342897511</v>
+        <v>342931726</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SANTA RITA DE CÁSSIA</t>
+          <t>ITABUNA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>ITT</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>08/05/2025 16:04:11</t>
+          <t>09/05/2025 11:00:04</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6117,7 +6117,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>342902970</v>
+        <v>342933219</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6126,22 +6126,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>JANDAÍRA</t>
+          <t>MATA DE SÃO JOÃO</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>JAN</t>
+          <t>ASA</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>08/05/2025 17:56:02</t>
+          <t>09/05/2025 11:34:13</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6157,7 +6157,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>342909009</v>
+        <v>342933845</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6166,27 +6166,27 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>NOVA IBIÁ</t>
+          <t>BRUMADO</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NIB</t>
+          <t>MGT</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>08/05/2025 21:39:36</t>
+          <t>09/05/2025 11:47:32</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Fatura_B</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6197,7 +6197,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>342910516</v>
+        <v>342937902</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6206,22 +6206,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>LIVRAMENTO DE NOSSA SENHORA</t>
+          <t>MATA DE SÃO JOÃO</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LLC</t>
+          <t>ASA</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>08/05/2025 22:55:35</t>
+          <t>09/05/2025 13:23:26</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6237,7 +6237,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>342919610</v>
+        <v>342943142</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6246,27 +6246,27 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>JPP</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>09/05/2025 06:34:20</t>
+          <t>09/05/2025 15:31:04</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6277,7 +6277,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>342922052</v>
+        <v>342952211</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ESPLANADA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>PAQ</t>
+          <t>EPP</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>09/05/2025 07:49:30</t>
+          <t>09/05/2025 18:01:42</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6317,7 +6317,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>342924977</v>
+        <v>342960413</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -6326,27 +6326,27 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ITABUNA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>09/05/2025 09:01:21</t>
+          <t>09/05/2025 22:28:43</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6357,7 +6357,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>342931726</v>
+        <v>342972364</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6366,27 +6366,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ITABUNA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>UCS</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>09/05/2025 11:00:04</t>
+          <t>10/05/2025 08:23:35</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6397,7 +6397,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>342933219</v>
+        <v>342974950</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MATA DE SÃO JOÃO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>09/05/2025 11:34:13</t>
+          <t>10/05/2025 10:21:34</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6437,7 +6437,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>342933845</v>
+        <v>342976925</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6446,27 +6446,27 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>BRUMADO</t>
+          <t>FEIRA DE SANTANA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>MGT</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>09/05/2025 11:47:32</t>
+          <t>10/05/2025 13:30:49</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Fatura_B</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6477,7 +6477,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>342937902</v>
+        <v>342978355</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6486,12 +6486,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MATA DE SÃO JOÃO</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>JAU</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>09/05/2025 13:23:26</t>
+          <t>10/05/2025 15:35:48</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6517,7 +6517,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>342943142</v>
+        <v>342980853</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6526,27 +6526,27 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>IGRAPIÚNA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>JPP</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>09/05/2025 15:31:04</t>
+          <t>10/05/2025 16:16:42</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6557,7 +6557,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>342952211</v>
+        <v>342987090</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6566,22 +6566,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ESPLANADA</t>
+          <t>VALENÇA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>EPP</t>
+          <t>RUD</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>09/05/2025 18:01:42</t>
+          <t>10/05/2025 20:21:23</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6597,7 +6597,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>342960413</v>
+        <v>342991779</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6606,22 +6606,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>VÁRZEA DA ROÇA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>VDR</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>09/05/2025 22:28:43</t>
+          <t>11/05/2025 00:24:23</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6637,7 +6637,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>342972364</v>
+        <v>342992298</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>UCS</t>
+          <t>CRH</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6661,12 +6661,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>10/05/2025 08:23:35</t>
+          <t>11/05/2025 00:39:24</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6677,7 +6677,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>342974950</v>
+        <v>342995722</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>IBITITÁ</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>IFN</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>10/05/2025 10:21:34</t>
+          <t>11/05/2025 02:50:26</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6717,7 +6717,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>342976925</v>
+        <v>343004084</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -6726,12 +6726,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>10/05/2025 13:30:49</t>
+          <t>11/05/2025 08:40:08</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6757,7 +6757,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>342978355</v>
+        <v>343023441</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -6766,22 +6766,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>IRECÊ</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>JAU</t>
+          <t>IAL</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>10/05/2025 15:35:48</t>
+          <t>11/05/2025 18:21:21</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6797,7 +6797,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>342980853</v>
+        <v>343027685</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -6806,12 +6806,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>IGRAPIÚNA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>IPA</t>
+          <t>SLZ</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>10/05/2025 16:16:42</t>
+          <t>11/05/2025 20:53:20</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6837,7 +6837,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>342987090</v>
+        <v>343038542</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>VALENÇA</t>
+          <t>MUCURI</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RUD</t>
+          <t>SZN</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>10/05/2025 20:21:23</t>
+          <t>12/05/2025 03:42:21</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6877,7 +6877,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>342991779</v>
+        <v>343046208</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6886,12 +6886,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>VÁRZEA DA ROÇA</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VDR</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>11/05/2025 00:24:23</t>
+          <t>12/05/2025 08:22:56</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6917,7 +6917,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>342992298</v>
+        <v>343046737</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6926,12 +6926,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>EIT</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6941,12 +6941,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>11/05/2025 00:39:24</t>
+          <t>12/05/2025 08:38:22</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6957,7 +6957,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>342994775</v>
+        <v>343051484</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6966,12 +6966,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CANDEIAS</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CZP</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>11/05/2025 02:07:57</t>
+          <t>12/05/2025 10:27:05</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6997,7 +6997,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>342995722</v>
+        <v>343054546</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -7006,12 +7006,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>IBITITÁ</t>
+          <t>JUAZEIRO</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>IFN</t>
+          <t>JCC</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>11/05/2025 02:50:26</t>
+          <t>12/05/2025 11:23:25</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7037,7 +7037,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>343004084</v>
+        <v>343067089</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -7046,12 +7046,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ENTRE RIOS</t>
+          <t>QUIJINGUE</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>MRP</t>
+          <t>QJG</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>11/05/2025 08:40:08</t>
+          <t>12/05/2025 15:36:16</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7077,7 +7077,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>343023441</v>
+        <v>343067357</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -7086,22 +7086,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>IRECÊ</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>IAL</t>
+          <t>OPH</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>11/05/2025 18:21:21</t>
+          <t>12/05/2025 15:41:51</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7117,7 +7117,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>343027685</v>
+        <v>343068193</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -7126,22 +7126,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SLZ</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>11/05/2025 20:53:20</t>
+          <t>12/05/2025 15:58:25</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7157,7 +7157,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>343038542</v>
+        <v>343069167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -7166,22 +7166,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MUCURI</t>
+          <t>JUAZEIRO</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SZN</t>
+          <t>JCC</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>12/05/2025 03:42:21</t>
+          <t>12/05/2025 16:17:07</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7197,7 +7197,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>343046208</v>
+        <v>343070947</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7206,27 +7206,27 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ENTRE RIOS</t>
+          <t>VITÓRIA DA CONQUISTA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>MRP</t>
+          <t>VCA</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>12/05/2025 08:22:56</t>
+          <t>12/05/2025 16:49:06</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7237,7 +7237,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>343051484</v>
+        <v>343075983</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -7246,22 +7246,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>REMANSO</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>NRE</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>12/05/2025 10:27:05</t>
+          <t>12/05/2025 19:00:47</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7277,7 +7277,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>343054546</v>
+        <v>343077997</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7286,22 +7286,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>JUAZEIRO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>JCC</t>
+          <t>OPH</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>12/05/2025 11:23:25</t>
+          <t>12/05/2025 20:00:49</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7317,7 +7317,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>343058193</v>
+        <v>343078303</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7326,27 +7326,27 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>NILO PEÇANHA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>EDJ</t>
+          <t>NLP</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>12/05/2025 12:32:29</t>
+          <t>12/05/2025 20:06:49</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7357,7 +7357,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>343067089</v>
+        <v>343094625</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7366,22 +7366,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>QUIJINGUE</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>QJG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>12/05/2025 15:36:16</t>
+          <t>13/05/2025 05:52:38</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7397,7 +7397,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>343067357</v>
+        <v>343099120</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>12/05/2025 15:41:51</t>
+          <t>13/05/2025 08:33:01</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7437,7 +7437,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>343068193</v>
+        <v>343099437</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7446,22 +7446,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SANTA RITA DE CÁSSIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>12/05/2025 15:58:25</t>
+          <t>13/05/2025 08:39:10</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7477,7 +7477,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>343069167</v>
+        <v>343099493</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -7486,22 +7486,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>JUAZEIRO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>JCC</t>
+          <t>PAQ</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>12/05/2025 16:17:07</t>
+          <t>13/05/2025 08:41:00</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7517,7 +7517,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>343070947</v>
+        <v>343108976</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -7526,27 +7526,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>VITÓRIA DA CONQUISTA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>VCA</t>
+          <t>AQN</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>12/05/2025 16:49:06</t>
+          <t>13/05/2025 12:09:52</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7557,7 +7557,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>343075983</v>
+        <v>343109584</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -7566,22 +7566,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>REMANSO</t>
+          <t>SANTA CRUZ CABRÁLIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>NRE</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>12/05/2025 19:00:47</t>
+          <t>13/05/2025 12:22:33</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7597,7 +7597,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>343077997</v>
+        <v>343119806</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -7606,12 +7606,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>OPH</t>
+          <t>EDJ</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>12/05/2025 20:00:49</t>
+          <t>13/05/2025 15:59:38</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7637,7 +7637,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>343078303</v>
+        <v>343120049</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -7646,22 +7646,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NILO PEÇANHA</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>NLP</t>
+          <t>JAU</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>12/05/2025 20:06:49</t>
+          <t>13/05/2025 16:03:43</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7677,7 +7677,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>343094625</v>
+        <v>343124953</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7686,12 +7686,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CAMAÇARI</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>EDJ</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>13/05/2025 05:52:38</t>
+          <t>13/05/2025 17:48:28</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7717,7 +7717,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>343099120</v>
+        <v>343144049</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -7726,22 +7726,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SANTA TEREZINHA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>OPH</t>
+          <t>PBR</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>13/05/2025 08:33:01</t>
+          <t>14/05/2025 03:21:50</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7757,7 +7757,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>343099437</v>
+        <v>343150949</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -7766,12 +7766,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SANTA RITA DE CÁSSIA</t>
+          <t>GUANAMBI</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>GHR</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7781,12 +7781,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>13/05/2025 08:39:10</t>
+          <t>14/05/2025 07:34:24</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7797,7 +7797,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>343099493</v>
+        <v>343155219</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -7806,27 +7806,27 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>BOM JESUS DA LAPA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>PAQ</t>
+          <t>CJE</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>13/05/2025 08:41:00</t>
+          <t>14/05/2025 09:21:51</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7837,7 +7837,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>343108976</v>
+        <v>343161323</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>AQN</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>13/05/2025 12:09:52</t>
+          <t>14/05/2025 11:04:31</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7877,7 +7877,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>343109584</v>
+        <v>343161985</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -7886,12 +7886,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SANTA CRUZ CABRÁLIA</t>
+          <t>ILHÉUS</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7901,12 +7901,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>13/05/2025 12:22:33</t>
+          <t>14/05/2025 11:15:49</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7917,7 +7917,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>343114532</v>
+        <v>343180310</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -7926,27 +7926,27 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MARAGOGIPE</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>MGI</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>13/05/2025 14:23:40</t>
+          <t>14/05/2025 18:03:46</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7957,7 +7957,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>343119806</v>
+        <v>343180444</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>CATU</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>EDJ</t>
+          <t>CTE</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7981,12 +7981,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>13/05/2025 15:59:38</t>
+          <t>14/05/2025 18:08:10</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7997,7 +7997,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>343120049</v>
+        <v>343180922</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -8006,12 +8006,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>JAU</t>
+          <t>ASL</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8021,12 +8021,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>13/05/2025 16:03:43</t>
+          <t>14/05/2025 18:23:16</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8037,7 +8037,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>343124953</v>
+        <v>343219479</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>EDJ</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>13/05/2025 17:48:28</t>
+          <t>15/05/2025 14:07:45</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8077,7 +8077,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>343144049</v>
+        <v>343219657</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -8086,22 +8086,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SANTA TEREZINHA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PBR</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>14/05/2025 03:21:50</t>
+          <t>15/05/2025 14:11:14</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8117,7 +8117,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>343148139</v>
+        <v>343221970</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -8126,27 +8126,27 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ITACARÉ</t>
+          <t>ALAGOINHAS</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>CP2</t>
+          <t>ALG</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>14/05/2025 05:55:27</t>
+          <t>15/05/2025 14:55:49</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Vandalismo</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8157,7 +8157,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>343150949</v>
+        <v>343229963</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -8166,27 +8166,27 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>GUANAMBI</t>
+          <t>AMÉRICA DOURADA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>GHR</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>14/05/2025 07:34:24</t>
+          <t>15/05/2025 17:38:04</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8197,7 +8197,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>343155219</v>
+        <v>343231765</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -8206,12 +8206,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>BOM JESUS DA LAPA</t>
+          <t>LUÍS EDUARDO MAGALHÃES</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>CJE</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8221,12 +8221,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>14/05/2025 09:21:51</t>
+          <t>15/05/2025 18:31:31</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8237,7 +8237,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>343161130</v>
+        <v>343231971</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -8246,27 +8246,27 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA</t>
+          <t>LUÍS EDUARDO MAGALHÃES</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>H24</t>
+          <t>LXN</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>14/05/2025 11:01:46</t>
+          <t>15/05/2025 18:38:11</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8277,7 +8277,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>343161323</v>
+        <v>343239498</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -8286,27 +8286,27 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CAIRU</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>PP1</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>14/05/2025 11:04:31</t>
+          <t>15/05/2025 22:52:58</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8317,7 +8317,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>343161985</v>
+        <v>343247540</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -8326,27 +8326,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ILHÉUS</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>OPH</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>14/05/2025 11:15:49</t>
+          <t>16/05/2025 04:03:42</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8357,7 +8357,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>343176224</v>
+        <v>343252709</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>STM</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8381,12 +8381,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>14/05/2025 16:37:29</t>
+          <t>16/05/2025 07:45:02</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8397,7 +8397,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>343180310</v>
+        <v>343258414</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -8406,12 +8406,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SÃO FRANCISCO DO CONDE</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>NRL</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>14/05/2025 18:03:46</t>
+          <t>16/05/2025 10:18:33</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8437,7 +8437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>343180444</v>
+        <v>343277257</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -8446,27 +8446,27 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>CATU</t>
+          <t>OLINDINA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>CTE</t>
+          <t>OLN</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>14/05/2025 18:08:10</t>
+          <t>16/05/2025 18:21:33</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8477,7 +8477,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>343180922</v>
+        <v>343283493</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -8486,27 +8486,27 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ALAGOINHAS</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ASL</t>
+          <t>ACV</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>14/05/2025 18:23:16</t>
+          <t>16/05/2025 22:47:33</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8517,7 +8517,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>343209701</v>
+        <v>343283536</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -8526,27 +8526,27 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>JABORANDI</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>JBD</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>15/05/2025 10:40:31</t>
+          <t>16/05/2025 22:48:04</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8557,7 +8557,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>343219479</v>
+        <v>343291202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -8566,12 +8566,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CAMAÇARI</t>
+          <t>CANDEIAS</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>CBM</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>15/05/2025 14:07:45</t>
+          <t>17/05/2025 05:09:56</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8597,7 +8597,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>343219657</v>
+        <v>343297138</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -8606,22 +8606,22 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>PPT</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>15/05/2025 14:11:14</t>
+          <t>17/05/2025 09:23:26</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8637,7 +8637,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>343221970</v>
+        <v>343308766</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -8646,27 +8646,27 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ALAGOINHAS</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ALG</t>
+          <t>MND</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>15/05/2025 14:55:49</t>
+          <t>17/05/2025 15:06:30</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Vandalismo</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8677,7 +8677,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>343229963</v>
+        <v>343309991</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -8686,27 +8686,27 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>AMÉRICA DOURADA</t>
+          <t>TABOCAS DO BREJO VELHO</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>TBV</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>15/05/2025 17:38:04</t>
+          <t>17/05/2025 15:37:27</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8717,7 +8717,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>343231765</v>
+        <v>343312017</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -8726,22 +8726,22 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LUÍS EDUARDO MAGALHÃES</t>
+          <t>PORTO SEGURO</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>15/05/2025 18:31:31</t>
+          <t>17/05/2025 16:28:42</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8757,7 +8757,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>343231971</v>
+        <v>343317980</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -8766,12 +8766,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>LUÍS EDUARDO MAGALHÃES</t>
+          <t>BRUMADO</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>LXN</t>
+          <t>PJR</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8781,12 +8781,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>15/05/2025 18:38:11</t>
+          <t>17/05/2025 19:56:30</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -8797,7 +8797,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>343239498</v>
+        <v>343321155</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -8806,27 +8806,27 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CAIRU</t>
+          <t>NOVA SOURE</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>PP1</t>
+          <t>NOC</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>15/05/2025 22:52:58</t>
+          <t>17/05/2025 22:11:00</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8837,7 +8837,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>343247540</v>
+        <v>343327174</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>OPH</t>
+          <t>MND</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8861,12 +8861,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>16/05/2025 04:03:42</t>
+          <t>18/05/2025 05:56:59</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8877,7 +8877,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>343252709</v>
+        <v>343330929</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -8886,27 +8886,27 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ITABUNA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>FRD</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>16/05/2025 07:45:02</t>
+          <t>18/05/2025 07:46:17</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8917,7 +8917,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>343258414</v>
+        <v>343331459</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -8926,27 +8926,27 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SÃO FRANCISCO DO CONDE</t>
+          <t>RIO REAL</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>NRL</t>
+          <t>RRC</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>16/05/2025 10:18:33</t>
+          <t>18/05/2025 07:46:35</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -8957,7 +8957,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>343277257</v>
+        <v>343332179</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -8966,27 +8966,27 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>OLINDINA</t>
+          <t>OLIVEIRA DOS BREJINHOS</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>OLN</t>
+          <t>OIP</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>16/05/2025 18:21:33</t>
+          <t>18/05/2025 08:07:51</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8997,7 +8997,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>343281623</v>
+        <v>343338899</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -9006,27 +9006,27 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>PORTO SEGURO</t>
+          <t>IRARÁ</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>UX4</t>
+          <t>IRA</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>16/05/2025 21:27:48</t>
+          <t>18/05/2025 10:53:48</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -9037,7 +9037,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>343282450</v>
+        <v>343341047</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -9046,22 +9046,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MARAGOGIPE</t>
+          <t>MATA DE SÃO JOÃO</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>MGP</t>
+          <t>ASA</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>16/05/2025 22:08:33</t>
+          <t>18/05/2025 11:35:58</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9077,7 +9077,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>343283493</v>
+        <v>343342437</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -9086,22 +9086,22 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ALAGOINHAS</t>
+          <t>CAMACAN</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>ACV</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>16/05/2025 22:47:33</t>
+          <t>18/05/2025 12:14:58</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9117,7 +9117,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>343283536</v>
+        <v>343342901</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>16/05/2025 22:48:04</t>
+          <t>18/05/2025 12:26:05</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9157,7 +9157,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>343291202</v>
+        <v>343348813</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -9166,27 +9166,27 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CANDEIAS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>CBM</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>17/05/2025 05:09:56</t>
+          <t>18/05/2025 15:14:56</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9197,7 +9197,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>343297138</v>
+        <v>343376722</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -9206,12 +9206,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ENTRE RIOS</t>
+          <t>CAFARNAUM</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>MRP</t>
+          <t>CFP</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>17/05/2025 09:23:26</t>
+          <t>19/05/2025 01:10:14</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9237,7 +9237,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>343309991</v>
+        <v>343409431</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -9246,27 +9246,27 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>TABOCAS DO BREJO VELHO</t>
+          <t>PORTO SEGURO</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>TBV</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>17/05/2025 15:37:27</t>
+          <t>19/05/2025 11:57:34</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9277,7 +9277,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>343312017</v>
+        <v>343415343</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -9286,12 +9286,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>PORTO SEGURO</t>
+          <t>MUTUÍPE</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>MUE</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>17/05/2025 16:28:42</t>
+          <t>19/05/2025 13:35:06</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9317,7 +9317,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>343317980</v>
+        <v>343425968</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -9326,27 +9326,27 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>BRUMADO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>PJR</t>
+          <t>MTU</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>17/05/2025 19:56:30</t>
+          <t>19/05/2025 15:56:29</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9357,7 +9357,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>343321155</v>
+        <v>343428335</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -9366,27 +9366,27 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>NOVA SOURE</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>NOC</t>
+          <t>LBE</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>17/05/2025 22:11:00</t>
+          <t>19/05/2025 16:29:12</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9397,7 +9397,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>343326015</v>
+        <v>343447891</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>CLB</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9421,12 +9421,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>18/05/2025 04:49:29</t>
+          <t>19/05/2025 23:07:38</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9437,7 +9437,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>343327174</v>
+        <v>343451239</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -9446,27 +9446,27 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>MND</t>
+          <t>FCB</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>18/05/2025 05:56:59</t>
+          <t>20/05/2025 00:24:03</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9477,7 +9477,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>343330929</v>
+        <v>343462045</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -9486,22 +9486,22 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>ITABUNA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>FRD</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>18/05/2025 07:46:17</t>
+          <t>20/05/2025 03:46:14</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9517,7 +9517,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>343331459</v>
+        <v>343514090</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -9526,22 +9526,22 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>RIO REAL</t>
+          <t>JEQUIÉ</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RRC</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>18/05/2025 07:46:35</t>
+          <t>20/05/2025 17:21:42</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9557,7 +9557,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>343332179</v>
+        <v>343522217</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -9566,27 +9566,27 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>OLIVEIRA DOS BREJINHOS</t>
+          <t>PARIPIRANGA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>OIP</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>18/05/2025 08:07:51</t>
+          <t>20/05/2025 20:50:14</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9597,7 +9597,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>343338899</v>
+        <v>343537153</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -9606,22 +9606,22 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>IRARÁ</t>
+          <t>JEQUIÉ</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>IRA</t>
+          <t>JEE</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>BA-NORTE</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>18/05/2025 10:53:48</t>
+          <t>21/05/2025 05:16:35</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9637,7 +9637,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>343341047</v>
+        <v>343537567</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -9646,12 +9646,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MATA DE SÃO JOÃO</t>
+          <t>SÃO SEBASTIÃO DO PASSÉ</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>SSE</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>18/05/2025 11:35:58</t>
+          <t>21/05/2025 05:35:35</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9677,7 +9677,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>343342437</v>
+        <v>343540475</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -9686,22 +9686,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CAMACAN</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>18/05/2025 12:14:58</t>
+          <t>21/05/2025 07:23:30</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9717,7 +9717,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>343342901</v>
+        <v>343545343</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>18/05/2025 12:26:05</t>
+          <t>21/05/2025 09:50:46</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9757,7 +9757,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>343348813</v>
+        <v>343546275</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -9766,27 +9766,27 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>18/05/2025 15:14:56</t>
+          <t>21/05/2025 10:10:56</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Vandalismo</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9797,7 +9797,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>343366679</v>
+        <v>343550970</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -9806,27 +9806,27 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CANAVIEIRAS</t>
+          <t>BARRA DA ESTIVA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>CPR</t>
+          <t>BST</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>18/05/2025 21:28:34</t>
+          <t>21/05/2025 12:36:48</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -9837,7 +9837,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>343376722</v>
+        <v>343558437</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -9846,12 +9846,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CAFARNAUM</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>CFP</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>19/05/2025 01:10:14</t>
+          <t>21/05/2025 15:40:35</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9877,7 +9877,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>343409431</v>
+        <v>343563669</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -9886,22 +9886,22 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>PORTO SEGURO</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>19/05/2025 11:57:34</t>
+          <t>21/05/2025 17:20:49</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9917,7 +9917,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>343415094</v>
+        <v>343565748</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -9926,27 +9926,27 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>VITÓRIA DA CONQUISTA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>VBH</t>
+          <t>SPN</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>BA-OESTE</t>
+          <t>BA-CAPITAL</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>19/05/2025 13:31:33</t>
+          <t>21/05/2025 17:59:27</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9957,7 +9957,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>343415343</v>
+        <v>343566910</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -9966,27 +9966,27 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MUTUÍPE</t>
+          <t>TERRA NOVA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>MUE</t>
+          <t>TNV</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>BA-SUL</t>
+          <t>BA-NORTE</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>19/05/2025 13:35:06</t>
+          <t>21/05/2025 18:29:57</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Vandalismo</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9997,7 +9997,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>343424598</v>
+        <v>343567493</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -10006,12 +10006,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>CAMPO ALEGRE DE LOURDES</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>XAL</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10021,12 +10021,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>19/05/2025 15:38:19</t>
+          <t>21/05/2025 18:46:58</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -10037,7 +10037,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>343425968</v>
+        <v>343569327</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -10046,22 +10046,22 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>BOM JESUS DA LAPA</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>MTU</t>
+          <t>CJE</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-OESTE</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>19/05/2025 15:56:29</t>
+          <t>21/05/2025 19:48:39</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10077,7 +10077,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>343428335</v>
+        <v>343593779</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>LBE</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>19/05/2025 16:29:12</t>
+          <t>22/05/2025 09:39:11</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Vandalismo</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -10117,7 +10117,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>343447891</v>
+        <v>343594843</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -10126,27 +10126,27 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>VALENÇA</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>RUD</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>BA-CAPITAL</t>
+          <t>BA-SUL</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>19/05/2025 23:07:38</t>
+          <t>22/05/2025 10:02:13</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -10157,7 +10157,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>343462045</v>
+        <v>343595250</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -10166,12 +10166,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>CONDE</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>STC</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>20/05/2025 03:46:14</t>
+          <t>22/05/2025 10:09:55</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10190,6 +10190,486 @@
         </is>
       </c>
       <c r="H244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>343596652</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>PORTO SEGURO</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>PTG</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>BA-SUL</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>22/05/2025 10:39:03</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>343600044</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>MATA DE SÃO JOÃO</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>BA-CAPITAL</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>22/05/2025 11:42:37</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>343605599</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>FEIRA DE SANTANA</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>BA-NORTE</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>22/05/2025 13:54:21</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>343607166</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>MRP</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>BA-NORTE</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>22/05/2025 14:31:22</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>343612768</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>INHAMBUPE</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>INH</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>BA-NORTE</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>22/05/2025 17:42:35</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>343613945</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>MORRO DO CHAPÉU</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>MCP</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>BA-NORTE</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>22/05/2025 18:01:33</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>343616121</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>MRP</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>BA-NORTE</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>22/05/2025 18:37:28</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>343638736</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>LAURO DE FREITAS</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>BA-CAPITAL</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>23/05/2025 09:25:44</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>343645491</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>LUÍS EDUARDO MAGALHÃES</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>FDT</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>BA-OESTE</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>23/05/2025 11:31:30</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>343647057</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>VITÓRIA DA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>VCS</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>BA-OESTE</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>23/05/2025 11:59:59</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>ICOMON_O&amp;M-BA_SE (Terceiro)</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>343650881</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>RIO REAL</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>RRC</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>BA-NORTE</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>23/05/2025 13:40:18</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Sobressalente</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>343651419</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MUCURI</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>MBS</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>BA-SUL</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>23/05/2025 13:50:32</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>O&amp;M ACESSO VIVO_N1_BA/SE_Acesso</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
         <is>
           <t>-</t>
         </is>
